--- a/input/QA_Check_072020.xlsx
+++ b/input/QA_Check_072020.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aeast\OneDrive - Environmental Protection Agency (EPA)\Profile\Desktop\LEM4\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E260F667-67A1-4674-8756-77F9CB475A66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{89F24E21-2C02-42CC-851B-720C56C2EABC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{E260F667-67A1-4674-8756-77F9CB475A66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{32AD045C-CE95-4E1D-8673-E7BF61D74627}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B35DA0D4-9E06-4918-A39E-4888D50F0C2D}"/>
+    <workbookView xWindow="28680" yWindow="-4140" windowWidth="29040" windowHeight="15840" xr2:uid="{B35DA0D4-9E06-4918-A39E-4888D50F0C2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="5" r:id="rId1"/>
     <sheet name="Original" sheetId="1" r:id="rId2"/>
     <sheet name="Changes" sheetId="3" r:id="rId3"/>
     <sheet name="Data_71720" sheetId="4" r:id="rId4"/>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C01A8FC-29A0-487A-9CDD-7133501978A1}">
   <dimension ref="B1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28831,7 +28831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1756E026-9E75-42C4-AA3D-DD161A642A6B}">
   <dimension ref="A1:AT142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -54282,19 +54282,19 @@
         <v>9</v>
       </c>
       <c r="M120">
-        <f>0.41*2/3</f>
+        <f t="shared" ref="M120:P121" si="0">0.41*2/3</f>
         <v>0.27333333333333332</v>
       </c>
       <c r="N120">
-        <f>0.41*2/3</f>
+        <f t="shared" si="0"/>
         <v>0.27333333333333332</v>
       </c>
       <c r="O120">
-        <f>0.41*2/3</f>
+        <f t="shared" si="0"/>
         <v>0.27333333333333332</v>
       </c>
       <c r="P120">
-        <f>0.41*2/3</f>
+        <f t="shared" si="0"/>
         <v>0.27333333333333332</v>
       </c>
       <c r="Z120" t="s">
@@ -54385,19 +54385,19 @@
         <v>10</v>
       </c>
       <c r="M121">
-        <f>0.41*2/3</f>
+        <f t="shared" si="0"/>
         <v>0.27333333333333332</v>
       </c>
       <c r="N121">
-        <f>0.41*2/3</f>
+        <f t="shared" si="0"/>
         <v>0.27333333333333332</v>
       </c>
       <c r="O121">
-        <f>0.41*2/3</f>
+        <f t="shared" si="0"/>
         <v>0.27333333333333332</v>
       </c>
       <c r="P121">
-        <f>0.41*2/3</f>
+        <f t="shared" si="0"/>
         <v>0.27333333333333332</v>
       </c>
       <c r="Z121" t="s">
@@ -56549,6 +56549,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Records_x0020_Date xmlns="e6ae508a-59c9-42bb-b4fe-819888132927" xsi:nil="true"/>
+    <Records_x0020_Status xmlns="e6ae508a-59c9-42bb-b4fe-819888132927">Pending</Records_x0020_Status>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100175F8EE2D16CCF4E9795DBA2E0366580" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0e36aa337ceae7f1d93f3efc48c3ea9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e6ae508a-59c9-42bb-b4fe-819888132927" xmlns:ns4="7d98c609-804a-400c-9f9b-45f6e3b4e0b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="376aea29d8ef60d7b2126687d24b7c91" ns3:_="" ns4:_="">
     <xsd:import namespace="e6ae508a-59c9-42bb-b4fe-819888132927"/>
@@ -56757,25 +56775,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4E514E2-7265-4B52-B8D9-502AA61560F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e6ae508a-59c9-42bb-b4fe-819888132927"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7d98c609-804a-400c-9f9b-45f6e3b4e0b0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Records_x0020_Date xmlns="e6ae508a-59c9-42bb-b4fe-819888132927" xsi:nil="true"/>
-    <Records_x0020_Status xmlns="e6ae508a-59c9-42bb-b4fe-819888132927">Pending</Records_x0020_Status>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA83CFC0-7289-427A-9767-A3AE74CD966C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53BEE3C0-91E9-482D-BBC5-36E8275597D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56792,29 +56817,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA83CFC0-7289-427A-9767-A3AE74CD966C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4E514E2-7265-4B52-B8D9-502AA61560F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e6ae508a-59c9-42bb-b4fe-819888132927"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7d98c609-804a-400c-9f9b-45f6e3b4e0b0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>